--- a/Anlin Albert/Seminar/Literature Review/Literature Review Table - Seminar.xlsx
+++ b/Anlin Albert/Seminar/Literature Review/Literature Review Table - Seminar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anlinalbert\Desktop\Main-Project\Anlin Albert\Seminar\Literature Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29016FEF-C862-43F3-A50D-54DF36B3213A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,11 +156,6 @@
     <t>Highly successful in classifiying activities performed</t>
   </si>
   <si>
-    <t xml:space="preserve">This paper explored the recognition method based on deep learning and designed the behavior recognition model based on CNN-LSTM. LSTM network model in human activity recognition. It demonstrated the superiority of the model in
-behavior recognition by using accuracy, prediction rate, and recall rate in the experiment.
-</t>
-  </si>
-  <si>
     <t>Increase the activity classes</t>
   </si>
   <si>
@@ -243,12 +244,16 @@
   </si>
   <si>
     <t>Superior performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper explored the recognition method based on deep learning and designed the behavior recognition model based on CNN-LSTM. LSTM network model in human activity recognition. It demonstrated the superiority of the model in behavior recognition by using accuracy, prediction rate, and recall rate in the experiment.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,10 +336,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,24 +647,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="4" customWidth="1"/>
@@ -703,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -733,7 +738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -765,7 +770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -788,16 +793,16 @@
         <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -821,13 +826,13 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -859,7 +864,7 @@
     </row>
     <row r="7" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -885,12 +890,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="5">
         <v>2019</v>
@@ -899,34 +904,34 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="5">
         <v>2019</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -935,30 +940,30 @@
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="C10" s="5">
         <v>2019</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -967,30 +972,30 @@
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>2019</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -1002,13 +1007,13 @@
         <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
